--- a/src/main/resources/TestExcel.xlsx
+++ b/src/main/resources/TestExcel.xlsx
@@ -38,9 +38,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -162,16 +159,35 @@
   </si>
   <si>
     <t>test description10</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,14 +210,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,7 +500,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,183 +520,184 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>